--- a/new_example.xlsx
+++ b/new_example.xlsx
@@ -472,22 +472,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.266887730886368</v>
+        <v>3.048079941998546</v>
       </c>
       <c r="B2" t="n">
-        <v>3.019183048998251</v>
+        <v>2.903954542459427</v>
       </c>
       <c r="C2" t="n">
-        <v>3.144723684377916</v>
+        <v>2.964391300585322</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0280852535991</v>
+        <v>2.996062051129612</v>
       </c>
       <c r="E2" t="n">
-        <v>2.264031153625275</v>
+        <v>2.217701589168956</v>
       </c>
       <c r="F2" t="n">
-        <v>2.757958731666385</v>
+        <v>2.716998999565631</v>
       </c>
       <c r="G2" t="n">
         <v>0.99</v>
@@ -495,229 +495,229 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.787088679344582</v>
+        <v>3.784076614924801</v>
       </c>
       <c r="B3" t="n">
-        <v>2.371637399627844</v>
+        <v>1.983541228456859</v>
       </c>
       <c r="C3" t="n">
-        <v>2.134626686875571</v>
+        <v>2.763649078035245</v>
       </c>
       <c r="D3" t="n">
-        <v>2.024870648488924</v>
+        <v>1.982162334608004</v>
       </c>
       <c r="E3" t="n">
-        <v>2.133910442870084</v>
+        <v>2.758504924404376</v>
       </c>
       <c r="F3" t="n">
-        <v>1.922919076480555</v>
+        <v>1.903012846432475</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.058691660094138</v>
+        <v>2.077911303700331</v>
       </c>
       <c r="B4" t="n">
-        <v>6.121285968674202</v>
+        <v>6.935206858486148</v>
       </c>
       <c r="C4" t="n">
-        <v>3.699931325314163</v>
+        <v>3.435733831091274</v>
       </c>
       <c r="D4" t="n">
-        <v>1.696536148075284</v>
+        <v>1.635339193776046</v>
       </c>
       <c r="E4" t="n">
-        <v>2.62653533893523</v>
+        <v>3.209150301851801</v>
       </c>
       <c r="F4" t="n">
-        <v>1.725822073290336</v>
+        <v>2.001267714175286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9761904761904762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.934063589489802</v>
+        <v>2.639351565503037</v>
       </c>
       <c r="B5" t="n">
-        <v>4.650475142923379</v>
+        <v>3.871772233280145</v>
       </c>
       <c r="C5" t="n">
-        <v>2.910981521577057</v>
+        <v>2.613983782951914</v>
       </c>
       <c r="D5" t="n">
-        <v>1.47541761512575</v>
+        <v>2.133645855228717</v>
       </c>
       <c r="E5" t="n">
-        <v>2.909090954404427</v>
+        <v>2.708751309206644</v>
       </c>
       <c r="F5" t="n">
-        <v>1.543633759204218</v>
+        <v>2.233936572551521</v>
       </c>
       <c r="G5" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.175020120165277</v>
+        <v>5.959322960454439</v>
       </c>
       <c r="B6" t="n">
-        <v>3.269524517837018</v>
+        <v>5.987535989846704</v>
       </c>
       <c r="C6" t="n">
-        <v>7.109191763544567</v>
+        <v>5.90856881712828</v>
       </c>
       <c r="D6" t="n">
-        <v>4.418307785500615</v>
+        <v>6.941978461998532</v>
       </c>
       <c r="E6" t="n">
-        <v>7.398697507432954</v>
+        <v>5.620382879403426</v>
       </c>
       <c r="F6" t="n">
-        <v>4.768844394919372</v>
+        <v>7.166153045319193</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.6868686868686869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.81793739476321</v>
+        <v>4.312102262054798</v>
       </c>
       <c r="B7" t="n">
-        <v>6.159351466888784</v>
+        <v>4.680352692164974</v>
       </c>
       <c r="C7" t="n">
-        <v>4.104262668917623</v>
+        <v>3.641951874156722</v>
       </c>
       <c r="D7" t="n">
-        <v>6.860537959974528</v>
+        <v>4.719092788450889</v>
       </c>
       <c r="E7" t="n">
-        <v>4.10117726206763</v>
+        <v>3.639917298852926</v>
       </c>
       <c r="F7" t="n">
-        <v>7.029839832564111</v>
+        <v>4.913896613002865</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6597938144329897</v>
+        <v>0.7525773195876289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.83300262115748</v>
+        <v>2.810215290364135</v>
       </c>
       <c r="B8" t="n">
-        <v>8.055364440577382</v>
+        <v>5.862026588935766</v>
       </c>
       <c r="C8" t="n">
-        <v>10.7211363750929</v>
+        <v>7.236824577119794</v>
       </c>
       <c r="D8" t="n">
-        <v>2.232324707162538</v>
+        <v>4.003237654269332</v>
       </c>
       <c r="E8" t="n">
-        <v>10.43876931821518</v>
+        <v>6.77915261981078</v>
       </c>
       <c r="F8" t="n">
-        <v>2.202024497886069</v>
+        <v>4.245408863477302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.746268656716418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.278454197469213</v>
+        <v>5.440566324155195</v>
       </c>
       <c r="B9" t="n">
-        <v>6.53515088160254</v>
+        <v>6.123877723362384</v>
       </c>
       <c r="C9" t="n">
-        <v>4.085905313213266</v>
+        <v>5.519386802986858</v>
       </c>
       <c r="D9" t="n">
-        <v>7.186768093693737</v>
+        <v>5.189295452830345</v>
       </c>
       <c r="E9" t="n">
-        <v>4.124192395434184</v>
+        <v>5.500337532756161</v>
       </c>
       <c r="F9" t="n">
-        <v>7.31363578059845</v>
+        <v>5.373562268133683</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.6730769230769231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.92422207404054</v>
+        <v>6.158171949485538</v>
       </c>
       <c r="B10" t="n">
-        <v>6.821915875808269</v>
+        <v>3.914112098355052</v>
       </c>
       <c r="C10" t="n">
-        <v>3.697007147504719</v>
+        <v>4.338396225974649</v>
       </c>
       <c r="D10" t="n">
-        <v>3.28069735651713</v>
+        <v>3.684903289967648</v>
       </c>
       <c r="E10" t="n">
-        <v>3.200783676513672</v>
+        <v>3.968776841166793</v>
       </c>
       <c r="F10" t="n">
-        <v>3.004362573242187</v>
+        <v>3.539506686870567</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.37263304502958</v>
+        <v>8.114969264222228</v>
       </c>
       <c r="B11" t="n">
-        <v>5.556195154113478</v>
+        <v>3.913012032471163</v>
       </c>
       <c r="C11" t="n">
-        <v>3.898846731602224</v>
+        <v>3.9416007114996</v>
       </c>
       <c r="D11" t="n">
-        <v>5.025233582474804</v>
+        <v>3.497891635266308</v>
       </c>
       <c r="E11" t="n">
-        <v>3.897846510094841</v>
+        <v>3.958924149474299</v>
       </c>
       <c r="F11" t="n">
-        <v>5.097165827047736</v>
+        <v>3.559866673808078</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8163265306122449</v>
+        <v>0.9591836734693877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.797293704072832</v>
+        <v>1.599555079116405</v>
       </c>
       <c r="B12" t="n">
-        <v>4.473271990896865</v>
+        <v>6.013116987848302</v>
       </c>
       <c r="C12" t="n">
-        <v>3.244531287102712</v>
+        <v>2.819658868328852</v>
       </c>
       <c r="D12" t="n">
-        <v>1.163320435175621</v>
+        <v>1.492999711538396</v>
       </c>
       <c r="E12" t="n">
-        <v>2.460921188845392</v>
+        <v>2.505996122806295</v>
       </c>
       <c r="F12" t="n">
-        <v>1.140852097069686</v>
+        <v>1.599140273829237</v>
       </c>
       <c r="G12" t="n">
         <v>0.96</v>
@@ -725,45 +725,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.627254314641834</v>
+        <v>8.862868576841324</v>
       </c>
       <c r="B13" t="n">
-        <v>7.82154568678568</v>
+        <v>9.187632877110964</v>
       </c>
       <c r="C13" t="n">
-        <v>2.830986787163726</v>
+        <v>3.948981595321409</v>
       </c>
       <c r="D13" t="n">
-        <v>2.724939809449825</v>
+        <v>3.234070678335834</v>
       </c>
       <c r="E13" t="n">
-        <v>2.953769135408058</v>
+        <v>4.08797346288717</v>
       </c>
       <c r="F13" t="n">
-        <v>2.577847660204904</v>
+        <v>3.333070574396586</v>
       </c>
       <c r="G13" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.5304654042081</v>
+        <v>11.11157279784455</v>
       </c>
       <c r="B14" t="n">
-        <v>7.453661909848584</v>
+        <v>9.268607978430085</v>
       </c>
       <c r="C14" t="n">
-        <v>9.916556628545173</v>
+        <v>10.0105085758718</v>
       </c>
       <c r="D14" t="n">
-        <v>6.631936170228803</v>
+        <v>5.90718689114394</v>
       </c>
       <c r="E14" t="n">
-        <v>10.46861741568301</v>
+        <v>10.36541110327339</v>
       </c>
       <c r="F14" t="n">
-        <v>7.006866331069774</v>
+        <v>6.086789998269388</v>
       </c>
       <c r="G14" t="n">
         <v>0.9399999999999999</v>
@@ -771,229 +771,229 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.643535190585133</v>
+        <v>7.796992156595124</v>
       </c>
       <c r="B15" t="n">
-        <v>10.62456272732631</v>
+        <v>8.684183729176917</v>
       </c>
       <c r="C15" t="n">
-        <v>7.988626289302047</v>
+        <v>7.202254390253311</v>
       </c>
       <c r="D15" t="n">
-        <v>4.517059504362236</v>
+        <v>4.031289169329274</v>
       </c>
       <c r="E15" t="n">
-        <v>7.992614543313938</v>
+        <v>7.204703458557129</v>
       </c>
       <c r="F15" t="n">
-        <v>4.67316123963257</v>
+        <v>4.186622271266579</v>
       </c>
       <c r="G15" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.47331479080141</v>
+        <v>3.453799503717523</v>
       </c>
       <c r="B16" t="n">
-        <v>2.925931531993374</v>
+        <v>6.829085466705271</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049726310892121</v>
+        <v>3.786156759694916</v>
       </c>
       <c r="D16" t="n">
-        <v>3.847188252738523</v>
+        <v>3.151781963998069</v>
       </c>
       <c r="E16" t="n">
-        <v>1.477829502955676</v>
+        <v>3.748349909838586</v>
       </c>
       <c r="F16" t="n">
-        <v>3.922995682242839</v>
+        <v>3.009686326045828</v>
       </c>
       <c r="G16" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.555809276757117</v>
+        <v>3.339494062005534</v>
       </c>
       <c r="B17" t="n">
-        <v>5.033805483166486</v>
+        <v>3.122159250761246</v>
       </c>
       <c r="C17" t="n">
-        <v>3.711126855206731</v>
+        <v>3.204366558598564</v>
       </c>
       <c r="D17" t="n">
-        <v>5.36702828881363</v>
+        <v>2.524717056221106</v>
       </c>
       <c r="E17" t="n">
-        <v>3.77769801579955</v>
+        <v>3.32845183698735</v>
       </c>
       <c r="F17" t="n">
-        <v>5.493334791270294</v>
+        <v>2.542282801875446</v>
       </c>
       <c r="G17" t="n">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.28153604193057</v>
+        <v>10.57675126002883</v>
       </c>
       <c r="B18" t="n">
-        <v>7.83713147643503</v>
+        <v>7.795648161738198</v>
       </c>
       <c r="C18" t="n">
-        <v>10.36070670346999</v>
+        <v>9.854583527599706</v>
       </c>
       <c r="D18" t="n">
-        <v>7.602927640450148</v>
+        <v>8.074704223566089</v>
       </c>
       <c r="E18" t="n">
-        <v>10.9061845942605</v>
+        <v>10.16483389885507</v>
       </c>
       <c r="F18" t="n">
-        <v>8.211418730139361</v>
+        <v>8.741842648328825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.483076177083891</v>
+        <v>3.155992130067979</v>
       </c>
       <c r="B19" t="n">
-        <v>2.188459728774008</v>
+        <v>3.005556773057685</v>
       </c>
       <c r="C19" t="n">
-        <v>2.224514923878624</v>
+        <v>1.814287571845762</v>
       </c>
       <c r="D19" t="n">
-        <v>2.183346958142717</v>
+        <v>2.903929857912755</v>
       </c>
       <c r="E19" t="n">
-        <v>2.207674723574542</v>
+        <v>1.809565318468191</v>
       </c>
       <c r="F19" t="n">
-        <v>2.199626855774721</v>
+        <v>3.077893235460575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.516139157756458</v>
+        <v>5.404059235356089</v>
       </c>
       <c r="B20" t="n">
-        <v>3.921270605189304</v>
+        <v>10.03174234800671</v>
       </c>
       <c r="C20" t="n">
-        <v>3.175756399773529</v>
+        <v>5.363811763702419</v>
       </c>
       <c r="D20" t="n">
-        <v>1.841134647994518</v>
+        <v>3.331286208952042</v>
       </c>
       <c r="E20" t="n">
-        <v>3.104516604871562</v>
+        <v>6.427941405460633</v>
       </c>
       <c r="F20" t="n">
-        <v>2.022624576339383</v>
+        <v>3.781926278656427</v>
       </c>
       <c r="G20" t="n">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.325568933573479</v>
+        <v>3.448582019159634</v>
       </c>
       <c r="B21" t="n">
-        <v>2.095344672168436</v>
+        <v>5.732807843347011</v>
       </c>
       <c r="C21" t="n">
-        <v>2.239604557434776</v>
+        <v>2.687984457960642</v>
       </c>
       <c r="D21" t="n">
-        <v>1.741340446403151</v>
+        <v>1.642202896531504</v>
       </c>
       <c r="E21" t="n">
-        <v>2.215703631352667</v>
+        <v>2.839288046193595</v>
       </c>
       <c r="F21" t="n">
-        <v>1.537543208250102</v>
+        <v>1.711790839369954</v>
       </c>
       <c r="G21" t="n">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.588665236552228</v>
+        <v>5.998275970144394</v>
       </c>
       <c r="B22" t="n">
-        <v>3.78915680272841</v>
+        <v>7.666874029381775</v>
       </c>
       <c r="C22" t="n">
-        <v>5.509156782429995</v>
+        <v>6.098706963092977</v>
       </c>
       <c r="D22" t="n">
-        <v>3.653753727742142</v>
+        <v>4.492701855290386</v>
       </c>
       <c r="E22" t="n">
-        <v>5.276615895609607</v>
+        <v>5.989438641240843</v>
       </c>
       <c r="F22" t="n">
-        <v>3.70293223731295</v>
+        <v>4.860844886782693</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.399745681873793</v>
+        <v>4.353457801126276</v>
       </c>
       <c r="B23" t="n">
-        <v>5.372834036712684</v>
+        <v>10.25366609409236</v>
       </c>
       <c r="C23" t="n">
-        <v>4.397954868770285</v>
+        <v>4.649648956740241</v>
       </c>
       <c r="D23" t="n">
-        <v>5.747802408444826</v>
+        <v>6.901856464212542</v>
       </c>
       <c r="E23" t="n">
-        <v>4.422023393529533</v>
+        <v>4.690058681261172</v>
       </c>
       <c r="F23" t="n">
-        <v>5.846369176469786</v>
+        <v>7.101665083537672</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7125</v>
+        <v>0.5443037974683544</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.917346046201569</v>
+        <v>6.907993771132113</v>
       </c>
       <c r="B24" t="n">
-        <v>7.235679617974488</v>
+        <v>6.09512853725399</v>
       </c>
       <c r="C24" t="n">
-        <v>6.99875508438948</v>
+        <v>6.726606810518242</v>
       </c>
       <c r="D24" t="n">
-        <v>6.490430016890798</v>
+        <v>4.35176294017369</v>
       </c>
       <c r="E24" t="n">
-        <v>7.249568555908203</v>
+        <v>6.582690010681153</v>
       </c>
       <c r="F24" t="n">
-        <v>7.475577463793756</v>
+        <v>4.904283945312501</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1001,45 +1001,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.711266485223128</v>
+        <v>4.687329975805488</v>
       </c>
       <c r="B25" t="n">
-        <v>4.803723239003361</v>
+        <v>3.178099543739878</v>
       </c>
       <c r="C25" t="n">
-        <v>3.036107378397235</v>
+        <v>6.317061407644924</v>
       </c>
       <c r="D25" t="n">
-        <v>11.74290512102463</v>
+        <v>14.97889080041364</v>
       </c>
       <c r="E25" t="n">
-        <v>3.030127241046175</v>
+        <v>6.307674129710266</v>
       </c>
       <c r="F25" t="n">
-        <v>11.88853198236476</v>
+        <v>15.0200308943188</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.946641884131201</v>
+        <v>8.275035472975633</v>
       </c>
       <c r="B26" t="n">
-        <v>3.697894576646406</v>
+        <v>7.712229670729463</v>
       </c>
       <c r="C26" t="n">
-        <v>7.886804268327892</v>
+        <v>8.003548291829864</v>
       </c>
       <c r="D26" t="n">
-        <v>3.5900867846271</v>
+        <v>3.643609100628942</v>
       </c>
       <c r="E26" t="n">
-        <v>7.962528012084962</v>
+        <v>8.174519548098248</v>
       </c>
       <c r="F26" t="n">
-        <v>3.568608465169271</v>
+        <v>3.644647372233073</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1047,459 +1047,459 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.579759262121788</v>
+        <v>7.951706188670511</v>
       </c>
       <c r="B27" t="n">
-        <v>4.316045189997854</v>
+        <v>13.25951262042726</v>
       </c>
       <c r="C27" t="n">
-        <v>3.352436698142693</v>
+        <v>8.415717636211289</v>
       </c>
       <c r="D27" t="n">
-        <v>4.979127958133866</v>
+        <v>8.133507528178683</v>
       </c>
       <c r="E27" t="n">
-        <v>3.357703325069512</v>
+        <v>8.421498557070343</v>
       </c>
       <c r="F27" t="n">
-        <v>5.177611057577741</v>
+        <v>8.167789766894007</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.12441799940452</v>
+        <v>14.82881146421418</v>
       </c>
       <c r="B28" t="n">
-        <v>16.62594942487116</v>
+        <v>29.90712929734061</v>
       </c>
       <c r="C28" t="n">
-        <v>7.188529730622351</v>
+        <v>15.51839991501413</v>
       </c>
       <c r="D28" t="n">
-        <v>17.69059171213357</v>
+        <v>37.77921835377643</v>
       </c>
       <c r="E28" t="n">
-        <v>7.188529730622351</v>
+        <v>15.51839991501413</v>
       </c>
       <c r="F28" t="n">
-        <v>17.69059171213357</v>
+        <v>37.77921835377643</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.939432715184779</v>
+        <v>9.277165344194733</v>
       </c>
       <c r="B29" t="n">
-        <v>4.671046957676393</v>
+        <v>19.71528072246758</v>
       </c>
       <c r="C29" t="n">
-        <v>2.482860761890991</v>
+        <v>9.277165344194733</v>
       </c>
       <c r="D29" t="n">
-        <v>3.405378433854921</v>
+        <v>5.770222065466601</v>
       </c>
       <c r="E29" t="n">
-        <v>2.50362569826623</v>
+        <v>9.257705929926935</v>
       </c>
       <c r="F29" t="n">
-        <v>3.537092185440578</v>
+        <v>6.002796385070666</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.260631574362804</v>
+        <v>5.056972076779895</v>
       </c>
       <c r="B30" t="n">
-        <v>18.17189074740704</v>
+        <v>3.842655536034453</v>
       </c>
       <c r="C30" t="n">
-        <v>5.170875150657839</v>
+        <v>5.486183936909141</v>
       </c>
       <c r="D30" t="n">
-        <v>17.10724846014462</v>
+        <v>6.244067498709033</v>
       </c>
       <c r="E30" t="n">
-        <v>5.170875150657839</v>
+        <v>5.566834655225278</v>
       </c>
       <c r="F30" t="n">
-        <v>17.10724846014462</v>
+        <v>7.417199418945314</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.752710985595452</v>
+        <v>5.352420725087243</v>
       </c>
       <c r="B31" t="n">
-        <v>5.746866886528603</v>
+        <v>3.494118823564438</v>
       </c>
       <c r="C31" t="n">
-        <v>4.332024983602346</v>
+        <v>8.063982851177629</v>
       </c>
       <c r="D31" t="n">
-        <v>4.765650649383273</v>
+        <v>12.26724903922047</v>
       </c>
       <c r="E31" t="n">
-        <v>4.340068909420241</v>
+        <v>8.100585305561944</v>
       </c>
       <c r="F31" t="n">
-        <v>4.754596525113643</v>
+        <v>12.33935709549792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.02797747449491</v>
+        <v>7.647918786836066</v>
       </c>
       <c r="B32" t="n">
-        <v>19.49536012209776</v>
+        <v>8.388652696669384</v>
       </c>
       <c r="C32" t="n">
-        <v>9.738223843655238</v>
+        <v>9.220274872531494</v>
       </c>
       <c r="D32" t="n">
-        <v>18.43071783483535</v>
+        <v>4.671799032742121</v>
       </c>
       <c r="E32" t="n">
-        <v>9.738223843655238</v>
+        <v>9.345891699829043</v>
       </c>
       <c r="F32" t="n">
-        <v>18.43071783483535</v>
+        <v>4.83571413079001</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.9833333333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.418202027968008</v>
+        <v>4.179031345561557</v>
       </c>
       <c r="B33" t="n">
-        <v>9.794081070337539</v>
+        <v>5.975513744417253</v>
       </c>
       <c r="C33" t="n">
-        <v>2.651401459208761</v>
+        <v>5.445618721396871</v>
       </c>
       <c r="D33" t="n">
-        <v>17.00443332344781</v>
+        <v>14.72180853170795</v>
       </c>
       <c r="E33" t="n">
-        <v>2.650074289956179</v>
+        <v>5.479349478261781</v>
       </c>
       <c r="F33" t="n">
-        <v>17.00991143468164</v>
+        <v>14.79750936481348</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.3277953628883</v>
+        <v>9.180747245010297</v>
       </c>
       <c r="B34" t="n">
-        <v>6.494086653599818</v>
+        <v>15.70339700097463</v>
       </c>
       <c r="C34" t="n">
-        <v>7.282917151035821</v>
+        <v>11.51277646026699</v>
       </c>
       <c r="D34" t="n">
-        <v>5.535908595063643</v>
+        <v>7.883088785593086</v>
       </c>
       <c r="E34" t="n">
-        <v>7.303962129820424</v>
+        <v>11.97139739156374</v>
       </c>
       <c r="F34" t="n">
-        <v>6.046382005251934</v>
+        <v>8.161859536980204</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.260251829543093</v>
+        <v>3.468414237627051</v>
       </c>
       <c r="B35" t="n">
-        <v>3.903927919096349</v>
+        <v>10.37092795473653</v>
       </c>
       <c r="C35" t="n">
-        <v>2.435105903218693</v>
+        <v>3.111026265871202</v>
       </c>
       <c r="D35" t="n">
-        <v>9.578036603890336</v>
+        <v>24.32329892245638</v>
       </c>
       <c r="E35" t="n">
-        <v>2.438943133400588</v>
+        <v>3.111026265871202</v>
       </c>
       <c r="F35" t="n">
-        <v>9.805136440556943</v>
+        <v>24.32329892245638</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.772728554141572</v>
+        <v>8.350979333638179</v>
       </c>
       <c r="B36" t="n">
-        <v>4.512225179463034</v>
+        <v>10.69533238644286</v>
       </c>
       <c r="C36" t="n">
-        <v>5.885178950902175</v>
+        <v>6.660425881211782</v>
       </c>
       <c r="D36" t="n">
-        <v>4.62897798862971</v>
+        <v>5.178246763851742</v>
       </c>
       <c r="E36" t="n">
-        <v>6.423328318500023</v>
+        <v>7.15727985072608</v>
       </c>
       <c r="F36" t="n">
-        <v>4.965207567855966</v>
+        <v>5.388281408642183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.710583958180155</v>
+        <v>4.866134355344052</v>
       </c>
       <c r="B37" t="n">
-        <v>4.124251237818435</v>
+        <v>5.522149426950201</v>
       </c>
       <c r="C37" t="n">
-        <v>3.105082918476021</v>
+        <v>6.612057825471381</v>
       </c>
       <c r="D37" t="n">
-        <v>11.309427742288</v>
+        <v>13.52346488247159</v>
       </c>
       <c r="E37" t="n">
-        <v>3.11028819128002</v>
+        <v>6.655966168125171</v>
       </c>
       <c r="F37" t="n">
-        <v>11.45776324914223</v>
+        <v>13.61061894648307</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21.16594309386122</v>
+        <v>30.75332746485643</v>
       </c>
       <c r="B38" t="n">
-        <v>12.97522073849401</v>
+        <v>10.95569106734778</v>
       </c>
       <c r="C38" t="n">
-        <v>21.61472521238603</v>
+        <v>26.86773273496201</v>
       </c>
       <c r="D38" t="n">
-        <v>14.03986302575643</v>
+        <v>18.8277801237836</v>
       </c>
       <c r="E38" t="n">
-        <v>23.4548740945722</v>
+        <v>27.92465945751814</v>
       </c>
       <c r="F38" t="n">
-        <v>14.92102522659047</v>
+        <v>19.31401791063847</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06000000000000005</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14.62569978780659</v>
+        <v>19.05450750746008</v>
       </c>
       <c r="B39" t="n">
-        <v>4.959085483530682</v>
+        <v>6.939208540704596</v>
       </c>
       <c r="C39" t="n">
-        <v>12.17450710396819</v>
+        <v>20.50976581688879</v>
       </c>
       <c r="D39" t="n">
-        <v>3.70530102096102</v>
+        <v>7.759364047160279</v>
       </c>
       <c r="E39" t="n">
-        <v>12.17876691281585</v>
+        <v>20.50976581688879</v>
       </c>
       <c r="F39" t="n">
-        <v>3.645585865220856</v>
+        <v>7.759364047160279</v>
       </c>
       <c r="G39" t="n">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.029281066534041</v>
+        <v>10.99790201075664</v>
       </c>
       <c r="B40" t="n">
-        <v>6.560844530516638</v>
+        <v>9.632193353697584</v>
       </c>
       <c r="C40" t="n">
-        <v>4.964659549422353</v>
+        <v>13.45589482164924</v>
       </c>
       <c r="D40" t="n">
-        <v>7.027329572583305</v>
+        <v>14.69606063165937</v>
       </c>
       <c r="E40" t="n">
-        <v>5.22694908501516</v>
+        <v>13.81416121708492</v>
       </c>
       <c r="F40" t="n">
-        <v>7.385422168247689</v>
+        <v>14.93408031602274</v>
       </c>
       <c r="G40" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.742545167097456</v>
+        <v>5.663508212127495</v>
       </c>
       <c r="B41" t="n">
-        <v>2.300955371413185</v>
+        <v>3.695345231330668</v>
       </c>
       <c r="C41" t="n">
-        <v>2.542045385197697</v>
+        <v>5.655402197067228</v>
       </c>
       <c r="D41" t="n">
-        <v>8.177897951034483</v>
+        <v>15.18037658809677</v>
       </c>
       <c r="E41" t="n">
-        <v>2.535913848323974</v>
+        <v>5.650620566209344</v>
       </c>
       <c r="F41" t="n">
-        <v>8.439827448795915</v>
+        <v>15.27268866468522</v>
       </c>
       <c r="G41" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20.50552106229744</v>
+        <v>27.11271586674435</v>
       </c>
       <c r="B42" t="n">
-        <v>11.95601033757433</v>
+        <v>8.002782487579573</v>
       </c>
       <c r="C42" t="n">
-        <v>20.95430318082225</v>
+        <v>23.22712113684993</v>
       </c>
       <c r="D42" t="n">
-        <v>13.02065262483675</v>
+        <v>15.87487154401538</v>
       </c>
       <c r="E42" t="n">
-        <v>22.53596258457372</v>
+        <v>24.06461293978001</v>
       </c>
       <c r="F42" t="n">
-        <v>13.55612095513867</v>
+        <v>16.56233973878247</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17.37307612433581</v>
+        <v>18.67321133354858</v>
       </c>
       <c r="B43" t="n">
-        <v>9.153481503547841</v>
+        <v>11.76889172143275</v>
       </c>
       <c r="C43" t="n">
-        <v>14.34350898527217</v>
+        <v>21.10916100382256</v>
       </c>
       <c r="D43" t="n">
-        <v>4.593222564704557</v>
+        <v>4.671919041714128</v>
       </c>
       <c r="E43" t="n">
-        <v>14.35697629144978</v>
+        <v>21.15807553262528</v>
       </c>
       <c r="F43" t="n">
-        <v>4.314969790363256</v>
+        <v>4.5030583206365</v>
       </c>
       <c r="G43" t="n">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.267213303592317</v>
+        <v>5.890202647320809</v>
       </c>
       <c r="B44" t="n">
-        <v>4.955073715832196</v>
+        <v>7.076316929190805</v>
       </c>
       <c r="C44" t="n">
-        <v>3.180245673806142</v>
+        <v>8.883784401940225</v>
       </c>
       <c r="D44" t="n">
-        <v>5.507031168345302</v>
+        <v>14.70061200784548</v>
       </c>
       <c r="E44" t="n">
-        <v>3.397659038397273</v>
+        <v>8.846443812289559</v>
       </c>
       <c r="F44" t="n">
-        <v>5.745553628543702</v>
+        <v>14.88965493245341</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.286948798724466</v>
+        <v>5.846892882697238</v>
       </c>
       <c r="B45" t="n">
-        <v>3.549783982068501</v>
+        <v>3.802111103854791</v>
       </c>
       <c r="C45" t="n">
-        <v>2.100582198143545</v>
+        <v>7.034004775133943</v>
       </c>
       <c r="D45" t="n">
-        <v>9.760521219704552</v>
+        <v>13.73411772464579</v>
       </c>
       <c r="E45" t="n">
-        <v>2.104600780271138</v>
+        <v>7.036228033537588</v>
       </c>
       <c r="F45" t="n">
-        <v>10.09040614111771</v>
+        <v>13.8388522235924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24.87371808823419</v>
+        <v>36.36225220460626</v>
       </c>
       <c r="B46" t="n">
-        <v>27.58168153170826</v>
+        <v>25.91142735157034</v>
       </c>
       <c r="C46" t="n">
-        <v>25.32250020675901</v>
+        <v>32.47665747471185</v>
       </c>
       <c r="D46" t="n">
-        <v>28.64632381897068</v>
+        <v>33.78351640800615</v>
       </c>
       <c r="E46" t="n">
-        <v>25.38966991873568</v>
+        <v>32.59735812353185</v>
       </c>
       <c r="F46" t="n">
-        <v>28.78866868529555</v>
+        <v>33.85773155840141</v>
       </c>
       <c r="G46" t="n">
         <v>0.92</v>
@@ -1507,25 +1507,25 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.53115159652275</v>
+        <v>13.5234435078097</v>
       </c>
       <c r="B47" t="n">
-        <v>8.546786792830721</v>
+        <v>12.61886276966677</v>
       </c>
       <c r="C47" t="n">
-        <v>11.19962635195913</v>
+        <v>14.24077155751991</v>
       </c>
       <c r="D47" t="n">
-        <v>5.634838189482686</v>
+        <v>11.26387070721437</v>
       </c>
       <c r="E47" t="n">
-        <v>11.21050019069936</v>
+        <v>14.27058236495143</v>
       </c>
       <c r="F47" t="n">
-        <v>5.553777905402963</v>
+        <v>11.14159551461954</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3595505617977528</v>
+        <v>0.7303370786516854</v>
       </c>
     </row>
   </sheetData>

--- a/new_example.xlsx
+++ b/new_example.xlsx
@@ -472,22 +472,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.048079941998546</v>
+        <v>2.645480183176489</v>
       </c>
       <c r="B2" t="n">
-        <v>2.903954542459427</v>
+        <v>2.981669812383067</v>
       </c>
       <c r="C2" t="n">
-        <v>2.964391300585322</v>
+        <v>2.820175475426402</v>
       </c>
       <c r="D2" t="n">
-        <v>2.996062051129612</v>
+        <v>2.999637340809718</v>
       </c>
       <c r="E2" t="n">
-        <v>2.217701589168956</v>
+        <v>2.07421410181729</v>
       </c>
       <c r="F2" t="n">
-        <v>2.716998999565631</v>
+        <v>2.890088297258887</v>
       </c>
       <c r="G2" t="n">
         <v>0.99</v>
@@ -495,229 +495,229 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.784076614924801</v>
+        <v>2.783028678369615</v>
       </c>
       <c r="B3" t="n">
-        <v>1.983541228456859</v>
+        <v>2.293509167112683</v>
       </c>
       <c r="C3" t="n">
-        <v>2.763649078035245</v>
+        <v>2.195707218448522</v>
       </c>
       <c r="D3" t="n">
-        <v>1.982162334608004</v>
+        <v>2.050826052618557</v>
       </c>
       <c r="E3" t="n">
-        <v>2.758504924404376</v>
+        <v>2.259566565388082</v>
       </c>
       <c r="F3" t="n">
-        <v>1.903012846432475</v>
+        <v>1.978745263767475</v>
       </c>
       <c r="G3" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.077911303700331</v>
+        <v>1.490142346180451</v>
       </c>
       <c r="B4" t="n">
-        <v>6.935206858486148</v>
+        <v>6.968510232307627</v>
       </c>
       <c r="C4" t="n">
-        <v>3.435733831091274</v>
+        <v>3.10355946133985</v>
       </c>
       <c r="D4" t="n">
-        <v>1.635339193776046</v>
+        <v>2.021509317757268</v>
       </c>
       <c r="E4" t="n">
-        <v>3.209150301851801</v>
+        <v>2.869897000978477</v>
       </c>
       <c r="F4" t="n">
-        <v>2.001267714175286</v>
+        <v>2.018172230447862</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.639351565503037</v>
+        <v>2.208111099209673</v>
       </c>
       <c r="B5" t="n">
-        <v>3.871772233280145</v>
+        <v>4.729878531496716</v>
       </c>
       <c r="C5" t="n">
-        <v>2.613983782951914</v>
+        <v>2.283464706074622</v>
       </c>
       <c r="D5" t="n">
-        <v>2.133645855228717</v>
+        <v>1.43610691344686</v>
       </c>
       <c r="E5" t="n">
-        <v>2.708751309206644</v>
+        <v>2.369357798838713</v>
       </c>
       <c r="F5" t="n">
-        <v>2.233936572551521</v>
+        <v>1.455038925087468</v>
       </c>
       <c r="G5" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.959322960454439</v>
+        <v>8.173843892473609</v>
       </c>
       <c r="B6" t="n">
-        <v>5.987535989846704</v>
+        <v>4.643485515839674</v>
       </c>
       <c r="C6" t="n">
-        <v>5.90856881712828</v>
+        <v>8.274913940043978</v>
       </c>
       <c r="D6" t="n">
-        <v>6.941978461998532</v>
+        <v>6.367505981802407</v>
       </c>
       <c r="E6" t="n">
-        <v>5.620382879403426</v>
+        <v>8.13504326631578</v>
       </c>
       <c r="F6" t="n">
-        <v>7.166153045319193</v>
+        <v>6.903606131519288</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.312102262054798</v>
+        <v>3.907739679188905</v>
       </c>
       <c r="B7" t="n">
-        <v>4.680352692164974</v>
+        <v>4.280632129572898</v>
       </c>
       <c r="C7" t="n">
-        <v>3.641951874156722</v>
+        <v>2.966656833832886</v>
       </c>
       <c r="D7" t="n">
-        <v>4.719092788450889</v>
+        <v>3.506082461732105</v>
       </c>
       <c r="E7" t="n">
-        <v>3.639917298852926</v>
+        <v>2.996194177234465</v>
       </c>
       <c r="F7" t="n">
-        <v>4.913896613002865</v>
+        <v>3.565979355300183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7525773195876289</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.810215290364135</v>
+        <v>6.604823098771231</v>
       </c>
       <c r="B8" t="n">
-        <v>5.862026588935766</v>
+        <v>6.630033585014409</v>
       </c>
       <c r="C8" t="n">
-        <v>7.236824577119794</v>
+        <v>7.510786678007073</v>
       </c>
       <c r="D8" t="n">
-        <v>4.003237654269332</v>
+        <v>2.475648436054491</v>
       </c>
       <c r="E8" t="n">
-        <v>6.77915261981078</v>
+        <v>7.657059393339555</v>
       </c>
       <c r="F8" t="n">
-        <v>4.245408863477302</v>
+        <v>2.495924884986576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.746268656716418</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.440566324155195</v>
+        <v>3.171703902489756</v>
       </c>
       <c r="B9" t="n">
-        <v>6.123877723362384</v>
+        <v>5.769017693572006</v>
       </c>
       <c r="C9" t="n">
-        <v>5.519386802986858</v>
+        <v>3.404896510361644</v>
       </c>
       <c r="D9" t="n">
-        <v>5.189295452830345</v>
+        <v>4.897541380151296</v>
       </c>
       <c r="E9" t="n">
-        <v>5.500337532756161</v>
+        <v>3.43561726589268</v>
       </c>
       <c r="F9" t="n">
-        <v>5.373562268133683</v>
+        <v>4.984813748253938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.158171949485538</v>
+        <v>4.195686845317218</v>
       </c>
       <c r="B10" t="n">
-        <v>3.914112098355052</v>
+        <v>7.440214705985981</v>
       </c>
       <c r="C10" t="n">
-        <v>4.338396225974649</v>
+        <v>3.299347018178573</v>
       </c>
       <c r="D10" t="n">
-        <v>3.684903289967648</v>
+        <v>3.399028184920809</v>
       </c>
       <c r="E10" t="n">
-        <v>3.968776841166793</v>
+        <v>2.930783324401856</v>
       </c>
       <c r="F10" t="n">
-        <v>3.539506686870567</v>
+        <v>3.078842600585938</v>
       </c>
       <c r="G10" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.114969264222228</v>
+        <v>14.39668406310454</v>
       </c>
       <c r="B11" t="n">
-        <v>3.913012032471163</v>
+        <v>4.157647795472045</v>
       </c>
       <c r="C11" t="n">
-        <v>3.9416007114996</v>
+        <v>4.988978676967147</v>
       </c>
       <c r="D11" t="n">
-        <v>3.497891635266308</v>
+        <v>3.674174235584873</v>
       </c>
       <c r="E11" t="n">
-        <v>3.958924149474299</v>
+        <v>4.984416444294283</v>
       </c>
       <c r="F11" t="n">
-        <v>3.559866673808078</v>
+        <v>3.670212635215939</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9591836734693877</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.599555079116405</v>
+        <v>3.019193728792991</v>
       </c>
       <c r="B12" t="n">
-        <v>6.013116987848302</v>
+        <v>4.071672155041843</v>
       </c>
       <c r="C12" t="n">
-        <v>2.819658868328852</v>
+        <v>2.77183166799993</v>
       </c>
       <c r="D12" t="n">
-        <v>1.492999711538396</v>
+        <v>1.057413757734714</v>
       </c>
       <c r="E12" t="n">
-        <v>2.505996122806295</v>
+        <v>2.595770795169821</v>
       </c>
       <c r="F12" t="n">
-        <v>1.599140273829237</v>
+        <v>1.110900087247482</v>
       </c>
       <c r="G12" t="n">
         <v>0.96</v>
@@ -725,68 +725,68 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.862868576841324</v>
+        <v>6.519646829128913</v>
       </c>
       <c r="B13" t="n">
-        <v>9.187632877110964</v>
+        <v>8.383845053940778</v>
       </c>
       <c r="C13" t="n">
-        <v>3.948981595321409</v>
+        <v>2.75836804094685</v>
       </c>
       <c r="D13" t="n">
-        <v>3.234070678335834</v>
+        <v>2.443986321547322</v>
       </c>
       <c r="E13" t="n">
-        <v>4.08797346288717</v>
+        <v>2.646275078466261</v>
       </c>
       <c r="F13" t="n">
-        <v>3.333070574396586</v>
+        <v>2.474748247944113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.11157279784455</v>
+        <v>13.80027595330281</v>
       </c>
       <c r="B14" t="n">
-        <v>9.268607978430085</v>
+        <v>10.29566345298771</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0105085758718</v>
+        <v>10.17767568810173</v>
       </c>
       <c r="D14" t="n">
-        <v>5.90718689114394</v>
+        <v>5.605824872291177</v>
       </c>
       <c r="E14" t="n">
-        <v>10.36541110327339</v>
+        <v>10.55195219546787</v>
       </c>
       <c r="F14" t="n">
-        <v>6.086789998269388</v>
+        <v>5.970792319468446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.796992156595124</v>
+        <v>7.791775431130467</v>
       </c>
       <c r="B15" t="n">
-        <v>8.684183729176917</v>
+        <v>9.631498491671584</v>
       </c>
       <c r="C15" t="n">
-        <v>7.202254390253311</v>
+        <v>7.564871969768899</v>
       </c>
       <c r="D15" t="n">
-        <v>4.031289169329274</v>
+        <v>4.443393538867119</v>
       </c>
       <c r="E15" t="n">
-        <v>7.204703458557129</v>
+        <v>7.627019296163118</v>
       </c>
       <c r="F15" t="n">
-        <v>4.186622271266579</v>
+        <v>4.491833432944031</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -794,206 +794,206 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.453799503717523</v>
+        <v>2.301592272506148</v>
       </c>
       <c r="B16" t="n">
-        <v>6.829085466705271</v>
+        <v>4.901653940375002</v>
       </c>
       <c r="C16" t="n">
-        <v>3.786156759694916</v>
+        <v>2.490793489279892</v>
       </c>
       <c r="D16" t="n">
-        <v>3.151781963998069</v>
+        <v>3.418492863660211</v>
       </c>
       <c r="E16" t="n">
-        <v>3.748349909838586</v>
+        <v>2.606455657258545</v>
       </c>
       <c r="F16" t="n">
-        <v>3.009686326045828</v>
+        <v>3.879143900413212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.339494062005534</v>
+        <v>3.648412278558224</v>
       </c>
       <c r="B17" t="n">
-        <v>3.122159250761246</v>
+        <v>3.238854098882157</v>
       </c>
       <c r="C17" t="n">
-        <v>3.204366558598564</v>
+        <v>3.390203939791567</v>
       </c>
       <c r="D17" t="n">
-        <v>2.524717056221106</v>
+        <v>3.910305279253269</v>
       </c>
       <c r="E17" t="n">
-        <v>3.32845183698735</v>
+        <v>3.32183010025809</v>
       </c>
       <c r="F17" t="n">
-        <v>2.542282801875446</v>
+        <v>3.914327935956126</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.57675126002883</v>
+        <v>9.601305423006352</v>
       </c>
       <c r="B18" t="n">
-        <v>7.795648161738198</v>
+        <v>6.385513887222067</v>
       </c>
       <c r="C18" t="n">
-        <v>9.854583527599706</v>
+        <v>9.650464254534786</v>
       </c>
       <c r="D18" t="n">
-        <v>8.074704223566089</v>
+        <v>5.116458464479161</v>
       </c>
       <c r="E18" t="n">
-        <v>10.16483389885507</v>
+        <v>10.01604677426484</v>
       </c>
       <c r="F18" t="n">
-        <v>8.741842648328825</v>
+        <v>5.098266272268339</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.155992130067979</v>
+        <v>3.508940327867398</v>
       </c>
       <c r="B19" t="n">
-        <v>3.005556773057685</v>
+        <v>2.939909114945499</v>
       </c>
       <c r="C19" t="n">
-        <v>1.814287571845762</v>
+        <v>2.558158241505099</v>
       </c>
       <c r="D19" t="n">
-        <v>2.903929857912755</v>
+        <v>2.793853346481065</v>
       </c>
       <c r="E19" t="n">
-        <v>1.809565318468191</v>
+        <v>2.60506472102746</v>
       </c>
       <c r="F19" t="n">
-        <v>3.077893235460575</v>
+        <v>2.932228904889177</v>
       </c>
       <c r="G19" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.404059235356089</v>
+        <v>3.286465664584123</v>
       </c>
       <c r="B20" t="n">
-        <v>10.03174234800671</v>
+        <v>5.48036324837117</v>
       </c>
       <c r="C20" t="n">
-        <v>5.363811763702419</v>
+        <v>3.625309045595052</v>
       </c>
       <c r="D20" t="n">
-        <v>3.331286208952042</v>
+        <v>2.182327787578059</v>
       </c>
       <c r="E20" t="n">
-        <v>6.427941405460633</v>
+        <v>3.709498432809299</v>
       </c>
       <c r="F20" t="n">
-        <v>3.781926278656427</v>
+        <v>2.623005372802609</v>
       </c>
       <c r="G20" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.448582019159634</v>
+        <v>3.318441462773006</v>
       </c>
       <c r="B21" t="n">
-        <v>5.732807843347011</v>
+        <v>5.915768818449891</v>
       </c>
       <c r="C21" t="n">
-        <v>2.687984457960642</v>
+        <v>2.583122087705831</v>
       </c>
       <c r="D21" t="n">
-        <v>1.642202896531504</v>
+        <v>1.757494071190817</v>
       </c>
       <c r="E21" t="n">
-        <v>2.839288046193595</v>
+        <v>2.855999350782982</v>
       </c>
       <c r="F21" t="n">
-        <v>1.711790839369954</v>
+        <v>1.79956985206176</v>
       </c>
       <c r="G21" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.998275970144394</v>
+        <v>5.336084894422473</v>
       </c>
       <c r="B22" t="n">
-        <v>7.666874029381775</v>
+        <v>4.421026516734708</v>
       </c>
       <c r="C22" t="n">
-        <v>6.098706963092977</v>
+        <v>5.347329028300082</v>
       </c>
       <c r="D22" t="n">
-        <v>4.492701855290386</v>
+        <v>3.864838235717776</v>
       </c>
       <c r="E22" t="n">
-        <v>5.989438641240843</v>
+        <v>5.134902629746993</v>
       </c>
       <c r="F22" t="n">
-        <v>4.860844886782693</v>
+        <v>3.89208408130045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.353457801126276</v>
+        <v>7.164290113556234</v>
       </c>
       <c r="B23" t="n">
-        <v>10.25366609409236</v>
+        <v>5.438865435947503</v>
       </c>
       <c r="C23" t="n">
-        <v>4.649648956740241</v>
+        <v>3.927791674031286</v>
       </c>
       <c r="D23" t="n">
-        <v>6.901856464212542</v>
+        <v>4.604610997609497</v>
       </c>
       <c r="E23" t="n">
-        <v>4.690058681261172</v>
+        <v>3.979862523141521</v>
       </c>
       <c r="F23" t="n">
-        <v>7.101665083537672</v>
+        <v>4.734013125844754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5443037974683544</v>
+        <v>0.8375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.907993771132113</v>
+        <v>6.169697083970425</v>
       </c>
       <c r="B24" t="n">
-        <v>6.09512853725399</v>
+        <v>5.800794115534849</v>
       </c>
       <c r="C24" t="n">
-        <v>6.726606810518242</v>
+        <v>6.169697083970425</v>
       </c>
       <c r="D24" t="n">
-        <v>4.35176294017369</v>
+        <v>4.655659612031951</v>
       </c>
       <c r="E24" t="n">
-        <v>6.582690010681153</v>
+        <v>6.124968508911134</v>
       </c>
       <c r="F24" t="n">
-        <v>4.904283945312501</v>
+        <v>4.793386631164552</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1001,45 +1001,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.687329975805488</v>
+        <v>7.752790686155082</v>
       </c>
       <c r="B25" t="n">
-        <v>3.178099543739878</v>
+        <v>4.113972199106972</v>
       </c>
       <c r="C25" t="n">
-        <v>6.317061407644924</v>
+        <v>4.649728849723791</v>
       </c>
       <c r="D25" t="n">
-        <v>14.97889080041364</v>
+        <v>4.129312343671085</v>
       </c>
       <c r="E25" t="n">
-        <v>6.307674129710266</v>
+        <v>4.72712680503173</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0200308943188</v>
+        <v>4.213435774601384</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.275035472975633</v>
+        <v>7.566396269554601</v>
       </c>
       <c r="B26" t="n">
-        <v>7.712229670729463</v>
+        <v>4.565435302299181</v>
       </c>
       <c r="C26" t="n">
-        <v>8.003548291829864</v>
+        <v>7.598448504420096</v>
       </c>
       <c r="D26" t="n">
-        <v>3.643609100628942</v>
+        <v>3.794682024411978</v>
       </c>
       <c r="E26" t="n">
-        <v>8.174519548098248</v>
+        <v>7.549726469395957</v>
       </c>
       <c r="F26" t="n">
-        <v>3.644647372233073</v>
+        <v>3.98291752726237</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1047,485 +1047,485 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.951706188670511</v>
+        <v>5.688832153711648</v>
       </c>
       <c r="B27" t="n">
-        <v>13.25951262042726</v>
+        <v>5.606614565534796</v>
       </c>
       <c r="C27" t="n">
-        <v>8.415717636211289</v>
+        <v>3.129571394056052</v>
       </c>
       <c r="D27" t="n">
-        <v>8.133507528178683</v>
+        <v>4.007818983763324</v>
       </c>
       <c r="E27" t="n">
-        <v>8.421498557070343</v>
+        <v>3.138040331985612</v>
       </c>
       <c r="F27" t="n">
-        <v>8.167789766894007</v>
+        <v>4.059906013709679</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.82881146421418</v>
+        <v>2.939347410029123</v>
       </c>
       <c r="B28" t="n">
-        <v>29.90712929734061</v>
+        <v>5.843875286667015</v>
       </c>
       <c r="C28" t="n">
-        <v>15.51839991501413</v>
+        <v>2.885989115603937</v>
       </c>
       <c r="D28" t="n">
-        <v>37.77921835377643</v>
+        <v>8.895837047148799</v>
       </c>
       <c r="E28" t="n">
-        <v>15.51839991501413</v>
+        <v>3.517481447501219</v>
       </c>
       <c r="F28" t="n">
-        <v>37.77921835377643</v>
+        <v>9.64852932084626</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.277165344194733</v>
+        <v>3.932392540991003</v>
       </c>
       <c r="B29" t="n">
-        <v>19.71528072246758</v>
+        <v>4.763940571493163</v>
       </c>
       <c r="C29" t="n">
-        <v>9.277165344194733</v>
+        <v>1.525726304588279</v>
       </c>
       <c r="D29" t="n">
-        <v>5.770222065466601</v>
+        <v>3.331807236398962</v>
       </c>
       <c r="E29" t="n">
-        <v>9.257705929926935</v>
+        <v>1.451718244652298</v>
       </c>
       <c r="F29" t="n">
-        <v>6.002796385070666</v>
+        <v>3.50388213921293</v>
       </c>
       <c r="G29" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.056972076779895</v>
+        <v>4.307251993916608</v>
       </c>
       <c r="B30" t="n">
-        <v>3.842655536034453</v>
+        <v>18.29939451835012</v>
       </c>
       <c r="C30" t="n">
-        <v>5.486183936909141</v>
+        <v>4.307251993916607</v>
       </c>
       <c r="D30" t="n">
-        <v>6.244067498709033</v>
+        <v>15.22079265763089</v>
       </c>
       <c r="E30" t="n">
-        <v>5.566834655225278</v>
+        <v>4.307251993916607</v>
       </c>
       <c r="F30" t="n">
-        <v>7.417199418945314</v>
+        <v>15.22079265763089</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.352420725087243</v>
+        <v>9.106387857876816</v>
       </c>
       <c r="B31" t="n">
-        <v>3.494118823564438</v>
+        <v>6.860701719907496</v>
       </c>
       <c r="C31" t="n">
-        <v>8.063982851177629</v>
+        <v>5.587572275752647</v>
       </c>
       <c r="D31" t="n">
-        <v>12.26724903922047</v>
+        <v>3.920307909997465</v>
       </c>
       <c r="E31" t="n">
-        <v>8.100585305561944</v>
+        <v>5.672028565322559</v>
       </c>
       <c r="F31" t="n">
-        <v>12.33935709549792</v>
+        <v>3.880563905440162</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.647918786836066</v>
+        <v>11.25074391837274</v>
       </c>
       <c r="B32" t="n">
-        <v>8.388652696669384</v>
+        <v>18.06419453453384</v>
       </c>
       <c r="C32" t="n">
-        <v>9.220274872531494</v>
+        <v>11.37895285783472</v>
       </c>
       <c r="D32" t="n">
-        <v>4.671799032742121</v>
+        <v>14.9855926738146</v>
       </c>
       <c r="E32" t="n">
-        <v>9.345891699829043</v>
+        <v>11.37780307141152</v>
       </c>
       <c r="F32" t="n">
-        <v>4.83571413079001</v>
+        <v>14.98681178209485</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.179031345561557</v>
+        <v>5.045361889688935</v>
       </c>
       <c r="B33" t="n">
-        <v>5.975513744417253</v>
+        <v>4.985840840845856</v>
       </c>
       <c r="C33" t="n">
-        <v>5.445618721396871</v>
+        <v>2.485388133358176</v>
       </c>
       <c r="D33" t="n">
-        <v>14.72180853170795</v>
+        <v>12.45514748094774</v>
       </c>
       <c r="E33" t="n">
-        <v>5.479349478261781</v>
+        <v>2.480198356137119</v>
       </c>
       <c r="F33" t="n">
-        <v>14.79750936481348</v>
+        <v>12.47810612554792</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.180747245010297</v>
+        <v>8.758700987414596</v>
       </c>
       <c r="B34" t="n">
-        <v>15.70339700097463</v>
+        <v>7.787874072538903</v>
       </c>
       <c r="C34" t="n">
-        <v>11.51277646026699</v>
+        <v>8.799911003670228</v>
       </c>
       <c r="D34" t="n">
-        <v>7.883088785593086</v>
+        <v>5.007659419431228</v>
       </c>
       <c r="E34" t="n">
-        <v>11.97139739156374</v>
+        <v>8.960492882906752</v>
       </c>
       <c r="F34" t="n">
-        <v>8.161859536980204</v>
+        <v>4.71146790587334</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.468414237627051</v>
+        <v>4.751825694098771</v>
       </c>
       <c r="B35" t="n">
-        <v>10.37092795473653</v>
+        <v>3.055613848713812</v>
       </c>
       <c r="C35" t="n">
-        <v>3.111026265871202</v>
+        <v>2.886268186113925</v>
       </c>
       <c r="D35" t="n">
-        <v>24.32329892245638</v>
+        <v>6.085622647966708</v>
       </c>
       <c r="E35" t="n">
-        <v>3.111026265871202</v>
+        <v>2.935224311862041</v>
       </c>
       <c r="F35" t="n">
-        <v>24.32329892245638</v>
+        <v>6.144442032585911</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8.350979333638179</v>
+        <v>5.364035349839932</v>
       </c>
       <c r="B36" t="n">
-        <v>10.69533238644286</v>
+        <v>5.467293542065469</v>
       </c>
       <c r="C36" t="n">
-        <v>6.660425881211782</v>
+        <v>5.33656200566951</v>
       </c>
       <c r="D36" t="n">
-        <v>5.178246763851742</v>
+        <v>5.836271354855599</v>
       </c>
       <c r="E36" t="n">
-        <v>7.15727985072608</v>
+        <v>5.598314534676295</v>
       </c>
       <c r="F36" t="n">
-        <v>5.388281408642183</v>
+        <v>6.340579187776803</v>
       </c>
       <c r="G36" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.866134355344052</v>
+        <v>6.219619226147532</v>
       </c>
       <c r="B37" t="n">
-        <v>5.522149426950201</v>
+        <v>2.840302177827975</v>
       </c>
       <c r="C37" t="n">
-        <v>6.612057825471381</v>
+        <v>3.263102798424721</v>
       </c>
       <c r="D37" t="n">
-        <v>13.52346488247159</v>
+        <v>7.666958246606097</v>
       </c>
       <c r="E37" t="n">
-        <v>6.655966168125171</v>
+        <v>3.328097599650759</v>
       </c>
       <c r="F37" t="n">
-        <v>13.61061894648307</v>
+        <v>7.810057780926593</v>
       </c>
       <c r="G37" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30.75332746485643</v>
+        <v>22.75430800887342</v>
       </c>
       <c r="B38" t="n">
-        <v>10.95569106734778</v>
+        <v>14.95960770953505</v>
       </c>
       <c r="C38" t="n">
-        <v>26.86773273496201</v>
+        <v>22.61694128802129</v>
       </c>
       <c r="D38" t="n">
-        <v>18.8277801237836</v>
+        <v>18.03820957025429</v>
       </c>
       <c r="E38" t="n">
-        <v>27.92465945751814</v>
+        <v>23.66845024010982</v>
       </c>
       <c r="F38" t="n">
-        <v>19.31401791063847</v>
+        <v>18.79012440733067</v>
       </c>
       <c r="G38" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19.05450750746008</v>
+        <v>15.10501353074606</v>
       </c>
       <c r="B39" t="n">
-        <v>6.939208540704596</v>
+        <v>7.599864336551956</v>
       </c>
       <c r="C39" t="n">
-        <v>20.50976581688879</v>
+        <v>13.38406946237191</v>
       </c>
       <c r="D39" t="n">
-        <v>7.759364047160279</v>
+        <v>3.563818789203592</v>
       </c>
       <c r="E39" t="n">
-        <v>20.50976581688879</v>
+        <v>13.43825191264128</v>
       </c>
       <c r="F39" t="n">
-        <v>7.759364047160279</v>
+        <v>3.53343769225432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.99790201075664</v>
+        <v>4.861274698485405</v>
       </c>
       <c r="B40" t="n">
-        <v>9.632193353697584</v>
+        <v>5.055269179290469</v>
       </c>
       <c r="C40" t="n">
-        <v>13.45589482164924</v>
+        <v>4.894242711489913</v>
       </c>
       <c r="D40" t="n">
-        <v>14.69606063165937</v>
+        <v>6.613200807073044</v>
       </c>
       <c r="E40" t="n">
-        <v>13.81416121708492</v>
+        <v>4.799202780870222</v>
       </c>
       <c r="F40" t="n">
-        <v>14.93408031602274</v>
+        <v>7.451533137162064</v>
       </c>
       <c r="G40" t="n">
-        <v>0.34</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.663508212127495</v>
+        <v>4.917077426655469</v>
       </c>
       <c r="B41" t="n">
-        <v>3.695345231330668</v>
+        <v>3.595786170241587</v>
       </c>
       <c r="C41" t="n">
-        <v>5.655402197067228</v>
+        <v>2.590303474817068</v>
       </c>
       <c r="D41" t="n">
-        <v>15.18037658809677</v>
+        <v>5.374979601572055</v>
       </c>
       <c r="E41" t="n">
-        <v>5.650620566209344</v>
+        <v>2.625578978073324</v>
       </c>
       <c r="F41" t="n">
-        <v>15.27268866468522</v>
+        <v>5.511595054323601</v>
       </c>
       <c r="G41" t="n">
-        <v>0.16</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27.11271586674435</v>
+        <v>21.30150128484481</v>
       </c>
       <c r="B42" t="n">
-        <v>8.002782487579573</v>
+        <v>14.79537931314329</v>
       </c>
       <c r="C42" t="n">
-        <v>23.22712113684993</v>
+        <v>21.1641345639927</v>
       </c>
       <c r="D42" t="n">
-        <v>15.87487154401538</v>
+        <v>17.87398117386252</v>
       </c>
       <c r="E42" t="n">
-        <v>24.06461293978001</v>
+        <v>22.44852818709878</v>
       </c>
       <c r="F42" t="n">
-        <v>16.56233973878247</v>
+        <v>18.84404646790117</v>
       </c>
       <c r="G42" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18.67321133354858</v>
+        <v>19.74643585317083</v>
       </c>
       <c r="B43" t="n">
-        <v>11.76889172143275</v>
+        <v>12.57695693151497</v>
       </c>
       <c r="C43" t="n">
-        <v>21.10916100382256</v>
+        <v>14.85838446884491</v>
       </c>
       <c r="D43" t="n">
-        <v>4.671919041714128</v>
+        <v>6.13726094814301</v>
       </c>
       <c r="E43" t="n">
-        <v>21.15807553262528</v>
+        <v>14.92797622995121</v>
       </c>
       <c r="F43" t="n">
-        <v>4.5030583206365</v>
+        <v>6.05930018322218</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.890202647320809</v>
+        <v>2.68337604012835</v>
       </c>
       <c r="B44" t="n">
-        <v>7.076316929190805</v>
+        <v>4.05226541986406</v>
       </c>
       <c r="C44" t="n">
-        <v>8.883784401940225</v>
+        <v>2.624128199535457</v>
       </c>
       <c r="D44" t="n">
-        <v>14.70061200784548</v>
+        <v>5.334057584334258</v>
       </c>
       <c r="E44" t="n">
-        <v>8.846443812289559</v>
+        <v>3.057084496629646</v>
       </c>
       <c r="F44" t="n">
-        <v>14.88965493245341</v>
+        <v>6.02373875962909</v>
       </c>
       <c r="G44" t="n">
-        <v>0.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.846892882697238</v>
+        <v>5.524047255374938</v>
       </c>
       <c r="B45" t="n">
-        <v>3.802111103854791</v>
+        <v>3.426551741287136</v>
       </c>
       <c r="C45" t="n">
-        <v>7.034004775133943</v>
+        <v>2.49722883365402</v>
       </c>
       <c r="D45" t="n">
-        <v>13.73411772464579</v>
+        <v>6.331069435755041</v>
       </c>
       <c r="E45" t="n">
-        <v>7.036228033537588</v>
+        <v>2.515697045876872</v>
       </c>
       <c r="F45" t="n">
-        <v>13.8388522235924</v>
+        <v>6.422196508778319</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36.36225220460626</v>
+        <v>23.03153902378605</v>
       </c>
       <c r="B46" t="n">
-        <v>25.91142735157034</v>
+        <v>25.10437202996442</v>
       </c>
       <c r="C46" t="n">
-        <v>32.47665747471185</v>
+        <v>22.89417230293393</v>
       </c>
       <c r="D46" t="n">
-        <v>33.78351640800615</v>
+        <v>28.18297389068366</v>
       </c>
       <c r="E46" t="n">
-        <v>32.59735812353185</v>
+        <v>22.95009995412199</v>
       </c>
       <c r="F46" t="n">
-        <v>33.85773155840141</v>
+        <v>28.25682274441482</v>
       </c>
       <c r="G46" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13.5234435078097</v>
+        <v>12.88227114816049</v>
       </c>
       <c r="B47" t="n">
-        <v>12.61886276966677</v>
+        <v>11.21844985274987</v>
       </c>
       <c r="C47" t="n">
-        <v>14.24077155751991</v>
+        <v>11.13758314213996</v>
       </c>
       <c r="D47" t="n">
-        <v>11.26387070721437</v>
+        <v>7.264992850164939</v>
       </c>
       <c r="E47" t="n">
-        <v>14.27058236495143</v>
+        <v>11.16406917349746</v>
       </c>
       <c r="F47" t="n">
-        <v>11.14159551461954</v>
+        <v>7.336537615778462</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7303370786516854</v>
+        <v>0.4269662921348315</v>
       </c>
     </row>
   </sheetData>

--- a/new_example.xlsx
+++ b/new_example.xlsx
@@ -481,13 +481,13 @@
         <v>2.820175475426402</v>
       </c>
       <c r="D2" t="n">
-        <v>2.999637340809718</v>
+        <v>2.999637340809719</v>
       </c>
       <c r="E2" t="n">
-        <v>2.07421410181729</v>
+        <v>2.074214115687528</v>
       </c>
       <c r="F2" t="n">
-        <v>2.890088297258887</v>
+        <v>2.890088328087363</v>
       </c>
       <c r="G2" t="n">
         <v>0.99</v>
@@ -507,10 +507,10 @@
         <v>2.050826052618557</v>
       </c>
       <c r="E3" t="n">
-        <v>2.259566565388082</v>
+        <v>2.259566485660909</v>
       </c>
       <c r="F3" t="n">
-        <v>1.978745263767475</v>
+        <v>1.978745298729175</v>
       </c>
       <c r="G3" t="n">
         <v>0.93</v>
@@ -530,10 +530,10 @@
         <v>2.021509317757268</v>
       </c>
       <c r="E4" t="n">
-        <v>2.869897000978477</v>
+        <v>2.869897025636679</v>
       </c>
       <c r="F4" t="n">
-        <v>2.018172230447862</v>
+        <v>2.018172190487002</v>
       </c>
       <c r="G4" t="n">
         <v>0.91</v>
@@ -547,16 +547,16 @@
         <v>4.729878531496716</v>
       </c>
       <c r="C5" t="n">
-        <v>2.283464706074622</v>
+        <v>2.283464706074623</v>
       </c>
       <c r="D5" t="n">
         <v>1.43610691344686</v>
       </c>
       <c r="E5" t="n">
-        <v>2.369357798838713</v>
+        <v>2.369357891152748</v>
       </c>
       <c r="F5" t="n">
-        <v>1.455038925087468</v>
+        <v>1.455038962510915</v>
       </c>
       <c r="G5" t="n">
         <v>0.89</v>
@@ -564,22 +564,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.173843892473609</v>
+        <v>8.173843892473613</v>
       </c>
       <c r="B6" t="n">
-        <v>4.643485515839674</v>
+        <v>4.643485515839675</v>
       </c>
       <c r="C6" t="n">
         <v>8.274913940043978</v>
       </c>
       <c r="D6" t="n">
-        <v>6.367505981802407</v>
+        <v>6.367505981802406</v>
       </c>
       <c r="E6" t="n">
-        <v>8.13504326631578</v>
+        <v>8.135043255527815</v>
       </c>
       <c r="F6" t="n">
-        <v>6.903606131519288</v>
+        <v>6.903606116138429</v>
       </c>
       <c r="G6" t="n">
         <v>0.53</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.907739679188905</v>
+        <v>3.907739679188906</v>
       </c>
       <c r="B7" t="n">
         <v>4.280632129572898</v>
@@ -599,10 +599,10 @@
         <v>3.506082461732105</v>
       </c>
       <c r="E7" t="n">
-        <v>2.996194177234465</v>
+        <v>2.996194170520597</v>
       </c>
       <c r="F7" t="n">
-        <v>3.565979355300183</v>
+        <v>3.565979378607984</v>
       </c>
       <c r="G7" t="n">
         <v>0.78</v>
@@ -613,7 +613,7 @@
         <v>6.604823098771231</v>
       </c>
       <c r="B8" t="n">
-        <v>6.630033585014409</v>
+        <v>6.630033585014411</v>
       </c>
       <c r="C8" t="n">
         <v>7.510786678007073</v>
@@ -622,10 +622,10 @@
         <v>2.475648436054491</v>
       </c>
       <c r="E8" t="n">
-        <v>7.657059393339555</v>
+        <v>7.657059473864</v>
       </c>
       <c r="F8" t="n">
-        <v>2.495924884986576</v>
+        <v>2.495924937217412</v>
       </c>
       <c r="G8" t="n">
         <v>0.84</v>
@@ -633,22 +633,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.171703902489756</v>
+        <v>3.171703902489755</v>
       </c>
       <c r="B9" t="n">
         <v>5.769017693572006</v>
       </c>
       <c r="C9" t="n">
-        <v>3.404896510361644</v>
+        <v>3.404896510361645</v>
       </c>
       <c r="D9" t="n">
-        <v>4.897541380151296</v>
+        <v>4.897541380151295</v>
       </c>
       <c r="E9" t="n">
-        <v>3.43561726589268</v>
+        <v>3.435617353172954</v>
       </c>
       <c r="F9" t="n">
-        <v>4.984813748253938</v>
+        <v>4.984813760356064</v>
       </c>
       <c r="G9" t="n">
         <v>0.72</v>
@@ -662,16 +662,16 @@
         <v>7.440214705985981</v>
       </c>
       <c r="C10" t="n">
-        <v>3.299347018178573</v>
+        <v>3.299347018178572</v>
       </c>
       <c r="D10" t="n">
         <v>3.399028184920809</v>
       </c>
       <c r="E10" t="n">
-        <v>2.930783324401856</v>
+        <v>2.930783460021973</v>
       </c>
       <c r="F10" t="n">
-        <v>3.078842600585938</v>
+        <v>3.078842764648437</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -685,16 +685,16 @@
         <v>4.157647795472045</v>
       </c>
       <c r="C11" t="n">
-        <v>4.988978676967147</v>
+        <v>4.988978676967146</v>
       </c>
       <c r="D11" t="n">
-        <v>3.674174235584873</v>
+        <v>3.674174235584872</v>
       </c>
       <c r="E11" t="n">
-        <v>4.984416444294283</v>
+        <v>4.984416498005221</v>
       </c>
       <c r="F11" t="n">
-        <v>3.670212635215939</v>
+        <v>3.670212507023037</v>
       </c>
       <c r="G11" t="n">
         <v>0.92</v>
@@ -702,22 +702,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.019193728792991</v>
+        <v>3.019193728792992</v>
       </c>
       <c r="B12" t="n">
         <v>4.071672155041843</v>
       </c>
       <c r="C12" t="n">
-        <v>2.77183166799993</v>
+        <v>2.771831667999931</v>
       </c>
       <c r="D12" t="n">
-        <v>1.057413757734714</v>
+        <v>1.057413757734713</v>
       </c>
       <c r="E12" t="n">
-        <v>2.595770795169821</v>
+        <v>2.595770881473532</v>
       </c>
       <c r="F12" t="n">
-        <v>1.110900087247482</v>
+        <v>1.110900032132736</v>
       </c>
       <c r="G12" t="n">
         <v>0.96</v>
@@ -728,7 +728,7 @@
         <v>6.519646829128913</v>
       </c>
       <c r="B13" t="n">
-        <v>8.383845053940778</v>
+        <v>8.383845053940776</v>
       </c>
       <c r="C13" t="n">
         <v>2.75836804094685</v>
@@ -737,10 +737,10 @@
         <v>2.443986321547322</v>
       </c>
       <c r="E13" t="n">
-        <v>2.646275078466261</v>
+        <v>2.646275172460401</v>
       </c>
       <c r="F13" t="n">
-        <v>2.474748247944113</v>
+        <v>2.474748191019293</v>
       </c>
       <c r="G13" t="n">
         <v>0.9</v>
@@ -751,19 +751,19 @@
         <v>13.80027595330281</v>
       </c>
       <c r="B14" t="n">
-        <v>10.29566345298771</v>
+        <v>10.29566345298772</v>
       </c>
       <c r="C14" t="n">
         <v>10.17767568810173</v>
       </c>
       <c r="D14" t="n">
-        <v>5.605824872291177</v>
+        <v>5.605824872291175</v>
       </c>
       <c r="E14" t="n">
-        <v>10.55195219546787</v>
+        <v>10.55195207834141</v>
       </c>
       <c r="F14" t="n">
-        <v>5.970792319468446</v>
+        <v>5.970792169505068</v>
       </c>
       <c r="G14" t="n">
         <v>0.96</v>
@@ -774,19 +774,19 @@
         <v>7.791775431130467</v>
       </c>
       <c r="B15" t="n">
-        <v>9.631498491671584</v>
+        <v>9.631498491671586</v>
       </c>
       <c r="C15" t="n">
-        <v>7.564871969768899</v>
+        <v>7.564871969768896</v>
       </c>
       <c r="D15" t="n">
         <v>4.443393538867119</v>
       </c>
       <c r="E15" t="n">
-        <v>7.627019296163118</v>
+        <v>7.627019494222201</v>
       </c>
       <c r="F15" t="n">
-        <v>4.491833432944031</v>
+        <v>4.491833415014953</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -797,19 +797,19 @@
         <v>2.301592272506148</v>
       </c>
       <c r="B16" t="n">
-        <v>4.901653940375002</v>
+        <v>4.901653940375001</v>
       </c>
       <c r="C16" t="n">
         <v>2.490793489279892</v>
       </c>
       <c r="D16" t="n">
-        <v>3.418492863660211</v>
+        <v>3.418492863660214</v>
       </c>
       <c r="E16" t="n">
-        <v>2.606455657258545</v>
+        <v>2.606455725023454</v>
       </c>
       <c r="F16" t="n">
-        <v>3.879143900413212</v>
+        <v>3.87914374660462</v>
       </c>
       <c r="G16" t="n">
         <v>0.86</v>
@@ -820,19 +820,19 @@
         <v>3.648412278558224</v>
       </c>
       <c r="B17" t="n">
-        <v>3.238854098882157</v>
+        <v>3.238854098882156</v>
       </c>
       <c r="C17" t="n">
-        <v>3.390203939791567</v>
+        <v>3.390203939791566</v>
       </c>
       <c r="D17" t="n">
-        <v>3.910305279253269</v>
+        <v>3.910305279253267</v>
       </c>
       <c r="E17" t="n">
-        <v>3.32183010025809</v>
+        <v>3.321830194252231</v>
       </c>
       <c r="F17" t="n">
-        <v>3.914327935956126</v>
+        <v>3.914327826588756</v>
       </c>
       <c r="G17" t="n">
         <v>0.8</v>
@@ -852,10 +852,10 @@
         <v>5.116458464479161</v>
       </c>
       <c r="E18" t="n">
-        <v>10.01604677426484</v>
+        <v>10.01604688522675</v>
       </c>
       <c r="F18" t="n">
-        <v>5.098266272268339</v>
+        <v>5.098266256032987</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -875,10 +875,10 @@
         <v>2.793853346481065</v>
       </c>
       <c r="E19" t="n">
-        <v>2.60506472102746</v>
+        <v>2.60506492957696</v>
       </c>
       <c r="F19" t="n">
-        <v>2.932228904889177</v>
+        <v>2.932228890545915</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -886,22 +886,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.286465664584123</v>
+        <v>3.286465664584124</v>
       </c>
       <c r="B20" t="n">
         <v>5.48036324837117</v>
       </c>
       <c r="C20" t="n">
-        <v>3.625309045595052</v>
+        <v>3.625309045595053</v>
       </c>
       <c r="D20" t="n">
         <v>2.182327787578059</v>
       </c>
       <c r="E20" t="n">
-        <v>3.709498432809299</v>
+        <v>3.709498186227268</v>
       </c>
       <c r="F20" t="n">
-        <v>2.623005372802609</v>
+        <v>2.623005345458859</v>
       </c>
       <c r="G20" t="n">
         <v>0.82</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.318441462773006</v>
+        <v>3.318441462773007</v>
       </c>
       <c r="B21" t="n">
-        <v>5.915768818449891</v>
+        <v>5.91576881844989</v>
       </c>
       <c r="C21" t="n">
         <v>2.583122087705831</v>
@@ -921,10 +921,10 @@
         <v>1.757494071190817</v>
       </c>
       <c r="E21" t="n">
-        <v>2.855999350782982</v>
+        <v>2.855999338771455</v>
       </c>
       <c r="F21" t="n">
-        <v>1.79956985206176</v>
+        <v>1.799569887891901</v>
       </c>
       <c r="G21" t="n">
         <v>0.84</v>
@@ -932,91 +932,91 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.336084894422473</v>
+        <v>14.4100068494721</v>
       </c>
       <c r="B22" t="n">
-        <v>4.421026516734708</v>
+        <v>9.039630987249334</v>
       </c>
       <c r="C22" t="n">
-        <v>5.347329028300082</v>
+        <v>11.72020403117303</v>
       </c>
       <c r="D22" t="n">
-        <v>3.864838235717776</v>
+        <v>6.800609529231702</v>
       </c>
       <c r="E22" t="n">
-        <v>5.134902629746993</v>
+        <v>11.84732973286921</v>
       </c>
       <c r="F22" t="n">
-        <v>3.89208408130045</v>
+        <v>7.538913960754967</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.164290113556234</v>
+        <v>9.084305231405869</v>
       </c>
       <c r="B23" t="n">
-        <v>5.438865435947503</v>
+        <v>2.897137424836119</v>
       </c>
       <c r="C23" t="n">
-        <v>3.927791674031286</v>
+        <v>6.172593957172555</v>
       </c>
       <c r="D23" t="n">
-        <v>4.604610997609497</v>
+        <v>3.237240562817508</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979862523141521</v>
+        <v>6.155240010981057</v>
       </c>
       <c r="F23" t="n">
-        <v>4.734013125844754</v>
+        <v>3.115081513103717</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8375</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.169697083970425</v>
+        <v>5.336084894422473</v>
       </c>
       <c r="B24" t="n">
-        <v>5.800794115534849</v>
+        <v>4.421026516734708</v>
       </c>
       <c r="C24" t="n">
-        <v>6.169697083970425</v>
+        <v>6.870000784322341</v>
       </c>
       <c r="D24" t="n">
-        <v>4.655659612031951</v>
+        <v>8.242793061011527</v>
       </c>
       <c r="E24" t="n">
-        <v>6.124968508911134</v>
+        <v>7.341352378988784</v>
       </c>
       <c r="F24" t="n">
-        <v>4.793386631164552</v>
+        <v>9.166483073647536</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.752790686155082</v>
+        <v>7.164290113556234</v>
       </c>
       <c r="B25" t="n">
-        <v>4.113972199106972</v>
+        <v>5.438865435947503</v>
       </c>
       <c r="C25" t="n">
-        <v>4.649728849723791</v>
+        <v>4.975091513281191</v>
       </c>
       <c r="D25" t="n">
-        <v>4.129312343671085</v>
+        <v>6.039102936182951</v>
       </c>
       <c r="E25" t="n">
-        <v>4.72712680503173</v>
+        <v>4.97488673484069</v>
       </c>
       <c r="F25" t="n">
-        <v>4.213435774601384</v>
+        <v>6.105191016042715</v>
       </c>
       <c r="G25" t="n">
         <v>0.7</v>
@@ -1024,436 +1024,436 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.566396269554601</v>
+        <v>6.169697083970425</v>
       </c>
       <c r="B26" t="n">
-        <v>4.565435302299181</v>
+        <v>5.800794115534849</v>
       </c>
       <c r="C26" t="n">
-        <v>7.598448504420096</v>
+        <v>8.535048476906821</v>
       </c>
       <c r="D26" t="n">
-        <v>3.794682024411978</v>
+        <v>9.453398022356319</v>
       </c>
       <c r="E26" t="n">
-        <v>7.549726469395957</v>
+        <v>8.827402925817681</v>
       </c>
       <c r="F26" t="n">
-        <v>3.98291752726237</v>
+        <v>10.04795343087991</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.688832153711648</v>
+        <v>7.752790686155082</v>
       </c>
       <c r="B27" t="n">
-        <v>5.606614565534796</v>
+        <v>4.113972199106972</v>
       </c>
       <c r="C27" t="n">
-        <v>3.129571394056052</v>
+        <v>5.728303359989492</v>
       </c>
       <c r="D27" t="n">
-        <v>4.007818983763324</v>
+        <v>4.702253912217587</v>
       </c>
       <c r="E27" t="n">
-        <v>3.138040331985612</v>
+        <v>5.738640372432865</v>
       </c>
       <c r="F27" t="n">
-        <v>4.059906013709679</v>
+        <v>4.735549597848031</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.939347410029123</v>
+        <v>7.566396269554602</v>
       </c>
       <c r="B28" t="n">
-        <v>5.843875286667015</v>
+        <v>4.565435302299181</v>
       </c>
       <c r="C28" t="n">
-        <v>2.885989115603937</v>
+        <v>7.544653417374303</v>
       </c>
       <c r="D28" t="n">
-        <v>8.895837047148799</v>
+        <v>8.103935709737568</v>
       </c>
       <c r="E28" t="n">
-        <v>3.517481447501219</v>
+        <v>7.625562715708796</v>
       </c>
       <c r="F28" t="n">
-        <v>9.64852932084626</v>
+        <v>9.066177143685389</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.932392540991003</v>
+        <v>5.688832153711648</v>
       </c>
       <c r="B29" t="n">
-        <v>4.763940571493163</v>
+        <v>5.606614565534796</v>
       </c>
       <c r="C29" t="n">
-        <v>1.525726304588279</v>
+        <v>3.638078945087051</v>
       </c>
       <c r="D29" t="n">
-        <v>3.331807236398962</v>
+        <v>6.314114726892977</v>
       </c>
       <c r="E29" t="n">
-        <v>1.451718244652298</v>
+        <v>3.629585087925889</v>
       </c>
       <c r="F29" t="n">
-        <v>3.50388213921293</v>
+        <v>6.471204248293078</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.307251993916608</v>
+        <v>2.939347410029121</v>
       </c>
       <c r="B30" t="n">
-        <v>18.29939451835012</v>
+        <v>5.843875286667015</v>
       </c>
       <c r="C30" t="n">
-        <v>4.307251993916607</v>
+        <v>8.01310186317332</v>
       </c>
       <c r="D30" t="n">
-        <v>15.22079265763089</v>
+        <v>2.679623454199326</v>
       </c>
       <c r="E30" t="n">
-        <v>4.307251993916607</v>
+        <v>8.421352473679981</v>
       </c>
       <c r="F30" t="n">
-        <v>15.22079265763089</v>
+        <v>2.685538575818712</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.106387857876816</v>
+        <v>3.932392540991004</v>
       </c>
       <c r="B31" t="n">
-        <v>6.860701719907496</v>
+        <v>4.763940571493163</v>
       </c>
       <c r="C31" t="n">
-        <v>5.587572275752647</v>
+        <v>1.631564786503901</v>
       </c>
       <c r="D31" t="n">
-        <v>3.920307909997465</v>
+        <v>5.585305379702527</v>
       </c>
       <c r="E31" t="n">
-        <v>5.672028565322559</v>
+        <v>1.591688762451576</v>
       </c>
       <c r="F31" t="n">
-        <v>3.880563905440162</v>
+        <v>5.830576693639824</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.25074391837274</v>
+        <v>4.307251993916608</v>
       </c>
       <c r="B32" t="n">
-        <v>18.06419453453384</v>
+        <v>18.29939451835012</v>
       </c>
       <c r="C32" t="n">
-        <v>11.37895285783472</v>
+        <v>6.284793054070779</v>
       </c>
       <c r="D32" t="n">
-        <v>14.9855926738146</v>
+        <v>23.30663634129601</v>
       </c>
       <c r="E32" t="n">
-        <v>11.37780307141152</v>
+        <v>6.284793054070779</v>
       </c>
       <c r="F32" t="n">
-        <v>14.98681178209485</v>
+        <v>23.30663634129601</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.045361889688935</v>
+        <v>9.106387857876816</v>
       </c>
       <c r="B33" t="n">
-        <v>4.985840840845856</v>
+        <v>6.860701719907497</v>
       </c>
       <c r="C33" t="n">
-        <v>2.485388133358176</v>
+        <v>6.758253330339024</v>
       </c>
       <c r="D33" t="n">
-        <v>12.45514748094774</v>
+        <v>7.599930047295923</v>
       </c>
       <c r="E33" t="n">
-        <v>2.480198356137119</v>
+        <v>6.777888089001435</v>
       </c>
       <c r="F33" t="n">
-        <v>12.47810612554792</v>
+        <v>7.821033602646652</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.758700987414596</v>
+        <v>11.25074391837274</v>
       </c>
       <c r="B34" t="n">
-        <v>7.787874072538903</v>
+        <v>18.06419453453384</v>
       </c>
       <c r="C34" t="n">
-        <v>8.799911003670228</v>
+        <v>6.644913362758564</v>
       </c>
       <c r="D34" t="n">
-        <v>5.007659419431228</v>
+        <v>23.07143635747973</v>
       </c>
       <c r="E34" t="n">
-        <v>8.960492882906752</v>
+        <v>6.644913362758564</v>
       </c>
       <c r="F34" t="n">
-        <v>4.71146790587334</v>
+        <v>23.07143635747973</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.751825694098771</v>
+        <v>5.045361889688935</v>
       </c>
       <c r="B35" t="n">
-        <v>3.055613848713812</v>
+        <v>4.985840840845856</v>
       </c>
       <c r="C35" t="n">
-        <v>2.886268186113925</v>
+        <v>3.071426037132339</v>
       </c>
       <c r="D35" t="n">
-        <v>6.085622647966708</v>
+        <v>4.319235885462003</v>
       </c>
       <c r="E35" t="n">
-        <v>2.935224311862041</v>
+        <v>3.140926197780046</v>
       </c>
       <c r="F35" t="n">
-        <v>6.144442032585911</v>
+        <v>4.308949993256004</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.364035349839932</v>
+        <v>8.758700987414596</v>
       </c>
       <c r="B36" t="n">
-        <v>5.467293542065469</v>
+        <v>7.787874072538903</v>
       </c>
       <c r="C36" t="n">
-        <v>5.33656200566951</v>
+        <v>8.089581714243616</v>
       </c>
       <c r="D36" t="n">
-        <v>5.836271354855599</v>
+        <v>12.79511589548479</v>
       </c>
       <c r="E36" t="n">
-        <v>5.598314534676295</v>
+        <v>8.102601399528659</v>
       </c>
       <c r="F36" t="n">
-        <v>6.340579187776803</v>
+        <v>12.8244609830662</v>
       </c>
       <c r="G36" t="n">
-        <v>0.84</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.219619226147532</v>
+        <v>4.75182569409877</v>
       </c>
       <c r="B37" t="n">
-        <v>2.840302177827975</v>
+        <v>3.055613848713814</v>
       </c>
       <c r="C37" t="n">
-        <v>3.263102798424721</v>
+        <v>2.86973530116631</v>
       </c>
       <c r="D37" t="n">
-        <v>7.666958246606097</v>
+        <v>3.405517508839345</v>
       </c>
       <c r="E37" t="n">
-        <v>3.328097599650759</v>
+        <v>2.932173993429617</v>
       </c>
       <c r="F37" t="n">
-        <v>7.810057780926593</v>
+        <v>3.506194351605716</v>
       </c>
       <c r="G37" t="n">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22.75430800887342</v>
+        <v>5.364035349839932</v>
       </c>
       <c r="B38" t="n">
-        <v>14.95960770953505</v>
+        <v>5.467293542065468</v>
       </c>
       <c r="C38" t="n">
-        <v>22.61694128802129</v>
+        <v>8.610240085444428</v>
       </c>
       <c r="D38" t="n">
-        <v>18.03820957025429</v>
+        <v>6.48632632915821</v>
       </c>
       <c r="E38" t="n">
-        <v>23.66845024010982</v>
+        <v>9.219909887211395</v>
       </c>
       <c r="F38" t="n">
-        <v>18.79012440733067</v>
+        <v>6.947233216170878</v>
       </c>
       <c r="G38" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15.10501353074606</v>
+        <v>6.219619226147532</v>
       </c>
       <c r="B39" t="n">
-        <v>7.599864336551956</v>
+        <v>2.840302177827974</v>
       </c>
       <c r="C39" t="n">
-        <v>13.38406946237191</v>
+        <v>3.990803041352522</v>
       </c>
       <c r="D39" t="n">
-        <v>3.563818789203592</v>
+        <v>3.071082840483745</v>
       </c>
       <c r="E39" t="n">
-        <v>13.43825191264128</v>
+        <v>4.04979121259339</v>
       </c>
       <c r="F39" t="n">
-        <v>3.53343769225432</v>
+        <v>3.151191698005939</v>
       </c>
       <c r="G39" t="n">
-        <v>0.72</v>
+        <v>0.06000000000000005</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.861274698485405</v>
+        <v>22.75430800887342</v>
       </c>
       <c r="B40" t="n">
-        <v>5.055269179290469</v>
+        <v>14.95960770953505</v>
       </c>
       <c r="C40" t="n">
-        <v>4.894242711489913</v>
+        <v>29.07575389142054</v>
       </c>
       <c r="D40" t="n">
-        <v>6.613200807073044</v>
+        <v>9.95236588658917</v>
       </c>
       <c r="E40" t="n">
-        <v>4.799202780870222</v>
+        <v>29.80759415634156</v>
       </c>
       <c r="F40" t="n">
-        <v>7.451533137162064</v>
+        <v>9.388654142250314</v>
       </c>
       <c r="G40" t="n">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.917077426655469</v>
+        <v>15.10501353074606</v>
       </c>
       <c r="B41" t="n">
-        <v>3.595786170241587</v>
+        <v>7.599864336551956</v>
       </c>
       <c r="C41" t="n">
-        <v>2.590303474817068</v>
+        <v>13.79191308035812</v>
       </c>
       <c r="D41" t="n">
-        <v>5.374979601572055</v>
+        <v>8.335991972483979</v>
       </c>
       <c r="E41" t="n">
-        <v>2.625578978073324</v>
+        <v>13.88361484345477</v>
       </c>
       <c r="F41" t="n">
-        <v>5.511595054323601</v>
+        <v>8.400375792649392</v>
       </c>
       <c r="G41" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21.30150128484481</v>
+        <v>4.861274698485405</v>
       </c>
       <c r="B42" t="n">
-        <v>14.79537931314329</v>
+        <v>5.055269179290469</v>
       </c>
       <c r="C42" t="n">
-        <v>21.1641345639927</v>
+        <v>5.615198496846006</v>
       </c>
       <c r="D42" t="n">
-        <v>17.87398117386252</v>
+        <v>5.281114795972446</v>
       </c>
       <c r="E42" t="n">
-        <v>22.44852818709878</v>
+        <v>6.303599832898453</v>
       </c>
       <c r="F42" t="n">
-        <v>18.84404646790117</v>
+        <v>5.808202892235832</v>
       </c>
       <c r="G42" t="n">
-        <v>0.26</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19.74643585317083</v>
+        <v>4.917077426655471</v>
       </c>
       <c r="B43" t="n">
-        <v>12.57695693151497</v>
+        <v>3.595786170241587</v>
       </c>
       <c r="C43" t="n">
-        <v>14.85838446884491</v>
+        <v>2.972750953712526</v>
       </c>
       <c r="D43" t="n">
-        <v>6.13726094814301</v>
+        <v>4.069667635771712</v>
       </c>
       <c r="E43" t="n">
-        <v>14.92797622995121</v>
+        <v>2.996852563268868</v>
       </c>
       <c r="F43" t="n">
-        <v>6.05930018322218</v>
+        <v>4.169378217010435</v>
       </c>
       <c r="G43" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.68337604012835</v>
+        <v>21.30150128484482</v>
       </c>
       <c r="B44" t="n">
-        <v>4.05226541986406</v>
+        <v>14.79537931314329</v>
       </c>
       <c r="C44" t="n">
-        <v>2.624128199535457</v>
+        <v>27.62294716739195</v>
       </c>
       <c r="D44" t="n">
-        <v>5.334057584334258</v>
+        <v>9.788137490197405</v>
       </c>
       <c r="E44" t="n">
-        <v>3.057084496629646</v>
+        <v>29.28714572216622</v>
       </c>
       <c r="F44" t="n">
-        <v>6.02373875962909</v>
+        <v>9.424078614411201</v>
       </c>
       <c r="G44" t="n">
         <v>0.98</v>
@@ -1461,71 +1461,71 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.524047255374938</v>
+        <v>19.74643585317083</v>
       </c>
       <c r="B45" t="n">
-        <v>3.426551741287136</v>
+        <v>12.57695693151497</v>
       </c>
       <c r="C45" t="n">
-        <v>2.49722883365402</v>
+        <v>16.80951955982221</v>
       </c>
       <c r="D45" t="n">
-        <v>6.331069435755041</v>
+        <v>13.39832173972433</v>
       </c>
       <c r="E45" t="n">
-        <v>2.515697045876872</v>
+        <v>16.8862554984894</v>
       </c>
       <c r="F45" t="n">
-        <v>6.422196508778319</v>
+        <v>13.57746530452584</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23.03153902378605</v>
+        <v>2.683376040128351</v>
       </c>
       <c r="B46" t="n">
-        <v>25.10437202996442</v>
+        <v>4.05226541986406</v>
       </c>
       <c r="C46" t="n">
-        <v>22.89417230293393</v>
+        <v>7.467177752368016</v>
       </c>
       <c r="D46" t="n">
-        <v>28.18297389068366</v>
+        <v>5.072943432686115</v>
       </c>
       <c r="E46" t="n">
-        <v>22.95009995412199</v>
+        <v>8.027475773561804</v>
       </c>
       <c r="F46" t="n">
-        <v>28.25682274441482</v>
+        <v>5.410574315844462</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.88227114816049</v>
+        <v>5.52404725537494</v>
       </c>
       <c r="B47" t="n">
-        <v>11.21844985274987</v>
+        <v>3.426551741287137</v>
       </c>
       <c r="C47" t="n">
-        <v>11.13758314213996</v>
+        <v>3.224570973650046</v>
       </c>
       <c r="D47" t="n">
-        <v>7.264992850164939</v>
+        <v>3.740338496293233</v>
       </c>
       <c r="E47" t="n">
-        <v>11.16406917349746</v>
+        <v>3.223398748390697</v>
       </c>
       <c r="F47" t="n">
-        <v>7.336537615778462</v>
+        <v>3.883942276638513</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4269662921348315</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
